--- a/UserStory_TestCases.xlsx
+++ b/UserStory_TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Scala\My Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Scala\My Projects\Queue_Api\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>User Story</t>
   </si>
@@ -268,13 +268,34 @@
   </si>
   <si>
     <t xml:space="preserve">Error:Actor Materializer </t>
+  </si>
+  <si>
+    <t>I have provided the Readme file mentioning the project details.</t>
+  </si>
+  <si>
+    <t>The other files are part of the project when i created in IntelliJ and exported the same as it has some dependencies. So i am worried if i remove it may work.</t>
+  </si>
+  <si>
+    <t>So i just provided the Readme.xlsx which explains the important files which has the code and explained in detail about each project and what it does.</t>
+  </si>
+  <si>
+    <t>Also the 2nd sheet has Design of what i tried to achieve from the requirement.</t>
+  </si>
+  <si>
+    <t>Readme file : Queue_Api/Readme.xlsx</t>
+  </si>
+  <si>
+    <t>Project 1      : Queue_Api/Api_process/</t>
+  </si>
+  <si>
+    <t>project 2      : Queue_Api/Queue_Service/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,6 +318,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -315,10 +358,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,12 +378,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,8 +387,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -671,7 +722,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="38.44140625" customWidth="1"/>
     <col min="3" max="3" width="24.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.88671875" customWidth="1"/>
@@ -679,27 +730,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -710,8 +761,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
@@ -720,8 +771,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
@@ -730,8 +781,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
@@ -740,10 +791,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -754,8 +805,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
@@ -764,8 +815,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
@@ -774,8 +825,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
@@ -784,10 +835,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -798,8 +849,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="5" t="s">
         <v>17</v>
       </c>
@@ -808,8 +859,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
@@ -818,8 +869,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
@@ -828,10 +879,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="72.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="10">
         <v>4</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -842,8 +893,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
@@ -852,8 +903,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
         <v>21</v>
       </c>
@@ -862,13 +913,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -879,7 +930,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -896,20 +947,20 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -918,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F78047-1F2A-4B87-8A36-C0FE1D8DE8ED}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -936,25 +987,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1162,9 +1213,50 @@
         <v>75</v>
       </c>
     </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="12"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="http://localhost:9000/pricing?q=NL,GBB" xr:uid="{6CF6179B-A40C-423C-A41D-01574B64B4FC}"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://github.com/sakcruise/Queue_Api" xr:uid="{AF6E6826-21C2-45AE-B353-416FE4FBCD89}"/>
+    <hyperlink ref="D23" r:id="rId3" display="https://github.com/sakcruise/Queue_Api" xr:uid="{C00FB415-21A9-4238-974A-EE040AB32268}"/>
+    <hyperlink ref="D24" r:id="rId4" display="https://github.com/sakcruise/Queue_Api" xr:uid="{D718186F-3302-45DD-9D48-0A0B3CBB7457}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
